--- a/data/qna/레저스포츠학전공.xlsx
+++ b/data/qna/레저스포츠학전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>학과</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>내용</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>답변</t>
         </is>
@@ -448,80 +458,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>교직이수</t>
+          <t>레저스포츠학전공</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>요강에 교직이라고 적혀있으면 1학년성적으로 결정함둥</t>
+          <t>성적이 안 좋아도 들어갈 수 있나요?</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>성적이 좋은 편은 아닌데 실기는 자신이 있습니다.
+딱히 대회 경력이 있는 것도 아니라 일반전형으로 가야 할 것 같은데 어느 정도 해야 들어갈 수 있나요. 성적이 안되면 실기라도 만점을 노릴 생각인데 굳이 해야한다면 성적은 어느정도 맞춰야 하나요...여고생입니다</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>보아하니 대전에 사시는것 같은데 이곳이 좋은대도 아닌데 굳이 멀리 올 필요가 있을까요?
+몇 등급인지는 모르겠으나 한의, 간호, 경행 등 몇개 과 제외하면 5,6,7등급 수두룩 빽빽해서 너무 걱정할 필요는 없는데 그냥 집 근처 대학 추천해요</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>체육학과</t>
+          <t>레저스포츠학전공</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>물치과 ㅅㅇㅅㅇㅅㅇㅅㅇㅅㅇㅅㅇㅅㅇㅅㅇ</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>실기 준비할때 출결</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>안녕하십니까, 언제나 너의 곁에 WE-DEU!
-동의대학교 전공 알림단 김도희입니다.🥕🥕
-동의대학교 경기실적우수자전형의 출결상황 반영 방법과 관련하여 질문을 남겨주셨군요 - !!
-동의대학교 실기/실적(경기실적우수자전형, 체육특기자전형)의 출결 상황 점수 반영은, 결석일수에 따라 반영 점수가 달라집니다.
-결석일수 0~2일의 경우 120점, 3~6일의 경우 90점, 7~12일의 경우 60점, 13~20일의 경우 30점, 21일 이상의 경우 0점으로 점수가 반영됩니다.
-또한, 사고/무단/미인정의 지각/조퇴/결과 3회는 결석 1회로 간주하고 있습니다.  
-다른 궁금한 질문들이 있으시다면 WE-DEU 네이버 카페, 인스타그램 @we_deu_를 이용하여 추가 문의 주시면 빠르게 답변 드리겠습니다.
-반짝반짝 빛나는 질문자님의 꿈을 응원하겠습니다.
-감사합니다.💙</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>실업계(상업고)3학년 급한데 현실적인 조언좀 ㅠㅠ</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3등급 초중반이면 동의대 가능합니다
-특정 높은 학과는 어렵겠지만 그렇지 않은경우는 합격할것 같네요-!</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>성적이 안 좋아도 들어갈 수 있나요?</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>보아하니 대전에 사시는것 같은데 이곳이 좋은대도 아닌데 굳이 멀리 올 필요가 있을까요?
-몇 등급인지는 모르겠으나 한의, 간호, 경행 등 몇개 과 제외하면 5,6,7등급 수두룩 빽빽해서 너무 걱정할 필요는 없는데 그냥 집 근처 대학 추천해요</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
           <t>정시 레저스포츠학과 실기전형 지원</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>정시 레저스포츠학과 실기전형 지원했는데 정시 실기고사 날짜가 어떻게 되는지 알 수 있을까요..?</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU! 동의대학교 입학홍보대사 김승현입니다!
 동의대학교 레저스포츠학과 정시 실기고사 날짜에 대해 알려드리겠습니다.
@@ -533,151 +507,70 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>동의대 체육 종합 추가합격</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>어려울 것 같아요 …! 20년도에 제 기억상으로는 6번까지 운 좋게 빠져서 들어왔는데 잘 안빠지는 것 같아요</t>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>레저스포츠학전공</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>고등학교 전학</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>제가 친가족들 집안 사정을 이유로 전학을 2번이나 갔고
+학폭이나 선도는 깨끗한데 대학갈때 지장이 클까요?</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>전학 여러번 다니던 애 성적 잘 받고 동국대 가던데 이전 학교에서 성적 좋았고 앞으로도 성적 좋으면 어느 대학교든 지장 없지 않겠습니까</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>태권도</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>레저스포츠학전공</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>정시기준</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>정시 기준으로 레저스포츠학부
+작년에 평균 몇등급 정도에 최초합 했나요
+실기 최소 2감 가정</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>실기 올만 수능 평균 4.0 최초합이었습니다 상영A 장학금 받고 들어갈 수 있었지만 안갔습니더</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>고등학교 전학</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>전학 여러번 다니던 애 성적 잘 받고 동국대 가던데 이전 학교에서 성적 좋았고 앞으로도 성적 좋으면 어느 대학교든 지장 없지 않겠습니까</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>체육학과</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>정시기준</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>실기 올만 수능 평균 4.0 최초합이었습니다 상영A 장학금 받고 들어갈 수 있었지만 안갔습니더</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>정시 등급</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>동의대</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>안녕하십니까 언제나 너의 곁에 WE DEU!
-동의대학교 입학홍보대사 윤다원입니다.
-동의대학교 체육학과 실기고사 날짜에 대해 질문해주셨는데요
-실기/실적(실기우수자전형)의 지원자격으로는 고교 졸업(예정)자 또는 검정고시 출신자가 지원할 수 있는 전형입니다. 
-반영비율로는 학생부교과 30% 실기 70%이고 실기 종목은 제자리 멀리뛰기, 메디신볼 던지기, Z-런이 있습니다.
-실기고사의 일정은 2021년 10월 9일 토요일로 입실 시간은 대기실 공고 시 별도 안내됩니다.
-실기/실적(경기실적우수자전형)의 지원자격으로는 고교 졸업(예정)자로서 고교 재학 중 국가대표, 국가대표후보선수(상비군) 및 청소년대표로 선발된 자 또는 광역시도 대표로 선발된 자로서 우리 대학이 인정하는 대회에 참가하여 일정 등위 이내의 경기실적이 있는 자가 지원할 구 있는 전형입니다(2019년 03월 이후의 실적만 인정). 반영비율로는 학생부교과 30% 서류 70%입니다.
-실기/실적(체육특기자전형)의 지원자격으로는 고교 재학 중 국가대표(국가대표후보선수(상비군)), 주니어대표, 청소년대표(청소년대표후보선수(상비군)), 유소년대표의 실적이 있는 자 또는 선발된 자이고 또 고교 재학 중 국제규모의 대회 또는 전국규모 대회 종목별 서류심사 기준 및 점수표의 기준에 부합하는 자가 지원할 수 있습니다. 반영비율로는 학생부교과 30% 서류 50% 면접 20% 입니다.
-참고하여 지원해보시기 바랍니다!
-반짝반짝 빛나는 질문자의 꿈을 응원하겠습니다. 감사합니다. 더 궁금하신 점은 위듀카페나 인스타그램, 오픈채팅을 통해 연락주세요 :)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>성비</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>8 ㄷ 2 정도 체육학과는 대부분 7ㄷ3 안 넘는듯</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>동의대 실기</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>안녕하십니까 언제나 너의 곁에 WE DEU!
-동의대학교 입학홍보대사 윤다원입니다🤍
-실기에 대해 질문해주셨네요
-실기/실적 위주전형은 실기우수자전형, 경기실적우수자전형, 체욱특기자전형이 있습니다.
-실기우수자전형은 학생부교과 30%, 실기 70%가 반영되고
-경기실적우수자전형은 학생부교과 30%, 서류(경기실적) 70%
-체육특기자전형은 학생부교과 30%, 서류(경기실적) 50%, 면접 20%가 반영됩니다.
-반짝반짝 빛나는 질문자의 꿈을 응원하겠습니다. 감사합니다. 더 궁금하신 점은 위듀카페나 인스타그램, 오픈채팅을 통해 연락주세요 :)
-동의대학교 입학홍보대사 윤다원
-https://open.kakao.com/o/sf4kGmdd</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>체육학과 관련 질문🤔</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>레저스포츠학전공</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>레저스포츠학부 종합 예비2번</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>예비2번 가능성있나요..</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>안녕하세요. 반갑습니다! 동의대학교 입학홍보대사 WE-DEU입니다😊😊
 에브리타임으로 문의주셨는데, 페이스북 wedeu890로 페이스북메세지 보내주시거나 인스타그램 we_deu로 DM 보내주시면 상세하게 답변도와드리겠습니다❤️
@@ -685,37 +578,23 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>동아리</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>배드민턴동아리 있어용 이름은 기억이...</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>알려주세용</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>페이스북에동의대학교 입학 홍보대사 Wedeu 검색하셔서 질문해 주세요! 친절히 답변해 드리겠습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>레저스포츠학전공</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>후보11인데..</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>레저스포츠학과후보11번인데가능성있을까요..?</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
